--- a/db/load/cdisc/ct/protocol/Protocol Terminology 2017-09-29.xlsx
+++ b/db/load/cdisc/ct/protocol/Protocol Terminology 2017-09-29.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/protocol/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3801F-460D-F44B-8206-02843D155561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="280" windowWidth="14940" windowHeight="12920" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="35860" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Protocol Terminology 2017-09-29'!$A$1:$H$98</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1142,9 +1148,6 @@
   </si>
   <si>
     <t>DEVICE FEASIBILITY</t>
-  </si>
-  <si>
-    <t>An intervention of a device product is being evaluated to determine the feasibility of the product or to test a prototype device and not health outcomes. Such studies are conducted to confirm the design and operating specifications of a device before beginning a full clinical trial. (clinicaltrials.gov)</t>
   </si>
   <si>
     <t>Device Feasibility Study</t>
@@ -1313,12 +1316,15 @@
   <si>
     <t>CDISC Submission Value</t>
   </si>
+  <si>
+    <t>An intervention of a device product is being evaluated to determine the feasibility of the product or to test a prototype device and not health outcomes. Such studies are conducted to confirm the design and operating specifications of a device before beginning a full clinical trial. (ClinicalTrials.gov)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1358,8 +1364,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,6 +1395,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1494,10 +1512,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,6 +1561,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1549,11 +1571,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1812,15 +1843,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
@@ -1829,91 +1860,91 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105.75" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:2" ht="13" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="87" customHeight="1" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="80.25" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="99.75" customHeight="1" thickBot="1">
-      <c r="A10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14">
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
     </row>
   </sheetData>
@@ -1930,15 +1961,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
@@ -1948,7 +1979,7 @@
     <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -1974,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2110,7 +2141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +2185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -2176,7 +2207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2198,7 +2229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2220,7 +2251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2242,7 +2273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -2266,7 +2297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2282,13 +2313,13 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2312,7 +2343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2336,7 +2367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -2360,7 +2391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -2384,7 +2415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -2406,7 +2437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
@@ -2430,7 +2461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -2454,7 +2485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -2478,7 +2509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -2526,7 +2557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1">
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
@@ -2550,7 +2581,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -2574,7 +2605,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
@@ -2598,7 +2629,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2622,7 +2653,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
@@ -2644,7 +2675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -2666,7 +2697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>117</v>
       </c>
@@ -2688,7 +2719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="33" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
@@ -2710,7 +2741,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1">
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
@@ -2732,7 +2763,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>128</v>
       </c>
@@ -2754,7 +2785,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
@@ -2776,7 +2807,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>134</v>
       </c>
@@ -2798,7 +2829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
@@ -2822,7 +2853,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="96">
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
@@ -2844,7 +2875,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>144</v>
       </c>
@@ -2866,7 +2897,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>148</v>
       </c>
@@ -2888,7 +2919,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>151</v>
       </c>
@@ -2912,7 +2943,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>155</v>
       </c>
@@ -2934,7 +2965,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1">
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>158</v>
       </c>
@@ -2958,7 +2989,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1">
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>162</v>
       </c>
@@ -2980,7 +3011,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1">
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>165</v>
       </c>
@@ -3002,7 +3033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1">
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>168</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1">
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>171</v>
       </c>
@@ -3048,7 +3079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>176</v>
       </c>
@@ -3070,7 +3101,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>180</v>
       </c>
@@ -3092,7 +3123,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>183</v>
       </c>
@@ -3116,7 +3147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>187</v>
       </c>
@@ -3138,7 +3169,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>190</v>
       </c>
@@ -3162,7 +3193,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>194</v>
       </c>
@@ -3186,7 +3217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>199</v>
       </c>
@@ -3208,7 +3239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>202</v>
       </c>
@@ -3230,7 +3261,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="57" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>206</v>
       </c>
@@ -3254,7 +3285,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>211</v>
       </c>
@@ -3276,7 +3307,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="59" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>215</v>
       </c>
@@ -3298,9 +3329,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>206</v>
@@ -3313,14 +3344,14 @@
         <v>372</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" ht="24">
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>219</v>
       </c>
@@ -3342,7 +3373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>223</v>
       </c>
@@ -3364,7 +3395,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>227</v>
       </c>
@@ -3386,7 +3417,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>231</v>
       </c>
@@ -3410,7 +3441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="65" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>236</v>
       </c>
@@ -3432,7 +3463,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="66" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>240</v>
       </c>
@@ -3454,7 +3485,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>244</v>
       </c>
@@ -3478,7 +3509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1">
+    <row r="68" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>249</v>
       </c>
@@ -3502,7 +3533,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1">
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -3526,7 +3557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="120">
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>255</v>
       </c>
@@ -3550,7 +3581,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" ht="156">
+    <row r="71" spans="1:8" s="3" customFormat="1" ht="196" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>260</v>
       </c>
@@ -3574,7 +3605,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="72" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>265</v>
       </c>
@@ -3598,7 +3629,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="84">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>270</v>
       </c>
@@ -3622,7 +3653,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="74" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>275</v>
       </c>
@@ -3646,7 +3677,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="75" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>280</v>
       </c>
@@ -3670,7 +3701,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>285</v>
       </c>
@@ -3694,7 +3725,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" ht="84">
+    <row r="77" spans="1:8" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>290</v>
       </c>
@@ -3718,7 +3749,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>295</v>
       </c>
@@ -3742,7 +3773,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="79" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>300</v>
       </c>
@@ -3766,7 +3797,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="3" customFormat="1" ht="84">
+    <row r="80" spans="1:8" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>305</v>
       </c>
@@ -3790,7 +3821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1">
+    <row r="81" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>310</v>
       </c>
@@ -3814,7 +3845,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="82" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>315</v>
       </c>
@@ -3838,7 +3869,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>320</v>
       </c>
@@ -3860,7 +3891,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>324</v>
       </c>
@@ -3882,7 +3913,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -3904,7 +3935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>328</v>
       </c>
@@ -3926,7 +3957,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>332</v>
       </c>
@@ -3948,7 +3979,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="88" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>336</v>
       </c>
@@ -3970,7 +4001,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1">
+    <row r="89" spans="1:8" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>340</v>
       </c>
@@ -3992,7 +4023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="90" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>344</v>
       </c>
@@ -4014,7 +4045,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" ht="72">
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>348</v>
       </c>
@@ -4036,7 +4067,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="92" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
@@ -4058,7 +4089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="93" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>356</v>
       </c>
@@ -4080,7 +4111,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>360</v>
       </c>
@@ -4102,7 +4133,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="95" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>231</v>
       </c>
@@ -4126,7 +4157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>364</v>
       </c>
@@ -4148,7 +4179,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>368</v>
       </c>
@@ -4170,7 +4201,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>244</v>
       </c>
@@ -4195,7 +4226,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H98"/>
+  <autoFilter ref="A1:H98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
